--- a/static/pdf/27EQ_Excel_Template.xlsx
+++ b/static/pdf/27EQ_Excel_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neeraj Project\TDS excel template\FINAL TEMPLATES FOR SOFTWARE\Blank for Software-220925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CBCD72-289E-4A21-9E5A-3C63643DC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9157DB0-F9AE-46EA-B197-DB95E6A9A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0Xo/geJ0Ki/inZl6UROkrtmMfb5b8Gh0hr7VoU+Y6eiHeoJn3MHxTV7fwOas32qdc8ojSAx3pY+EukC9zhz4Ig==" workbookSaltValue="ZcBXzG0DdwazhwC6v4HkhQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="786" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,10 +26,11 @@
     <sheet name="Read me" sheetId="2" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Challan Details'!$A$1:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Challan Details'!$A$1:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Collectee Details'!$A$1:$Y$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Validations Challan'!$B$2:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Validations Collectee'!$B$2:$I$56</definedName>
+    <definedName name="Running_Serial_No___651">'Challan Details'!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,45 +47,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="383">
   <si>
     <t>Light yellow Color in header, should be Mandatory</t>
   </si>
@@ -1923,7 +1887,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2157,10 +2121,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2215,64 +2175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2574,10 +2476,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A1048559" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2601,7 +2503,7 @@
       <c r="E1" s="71" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="89"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2614,7 +2516,7 @@
         <v>351</v>
       </c>
       <c r="D2"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>344</v>
       </c>
     </row>
@@ -2772,96 +2674,80 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="76" customWidth="1"/>
     <col min="2" max="8" width="15.77734375" style="81" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="86" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="87" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="86" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="77" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="74" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.44140625" style="74" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" style="74" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="74" hidden="1"/>
+    <col min="14" max="16384" width="8.88671875" style="74" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:13" s="94" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="96" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L2" s="83"/>
-      <c r="O2" s="74" t="e" cm="1" vm="1">
-        <f t="array" ref="O2">_xlfn._xlws.FILTER(A2:A1048576,A2:A1048576&lt;&gt;"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" s="86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L3" s="83"/>
-      <c r="P3" s="86" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L4" s="83"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="coltIid4fshSrUEgzpWtTBSKhrwFhfmWB4YjXceVmbqiUH2SJrCkjzfVLV/l5GB2/jv6z+QJ2Ut3lHaXyADRZg==" saltValue="GreXBEe0S3xZdr2d2RA/dw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:P4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y29I0RyFrq1TJ7cPZD4TLr9UiRa2zd+ZiZdaJjRrWTfLw3Iwn/UNvmbeJbvj6yBdhVqj5z+OUnlgnkE/aAiC2A==" saltValue="OvdwDNyLhoFziNo+qiwVSg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:N4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{BEB47774-C43D-4B3F-B4DA-D1513DAFCF3B}">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,7 +2775,7 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2912,83 +2798,83 @@
     <col min="31" max="16384" width="8.88671875" style="74" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:30" s="94" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="O1" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="93" t="s">
+      <c r="Q1" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="R1" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="T1" s="94" t="s">
+      <c r="T1" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="U1" s="94" t="s">
+      <c r="U1" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="W1" s="94" t="s">
+      <c r="W1" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="X1" s="94" t="s">
+      <c r="X1" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="94" t="s">
+      <c r="Y1" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AD1" s="95" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3349,18 +3235,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l0u3InL4FrXOfRk4rgIPPKK857+7q/5ox0jfiYcJV/fOYXNTYA+ijYEKJzHduhTwCmGEQyvBv6yPuaHHNsyoWw==" saltValue="TeI766txWVDnqHuaqjTDiQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8YUCFLAMPLPgeQc4th/ny0SjmidJYC4/V25Adroz0s8JVNuVaUX5iWGraPUA5IjapLxz7yI0F5Xu37pC44fo7Q==" saltValue="GI758ugRkQJzQFNgURCdzw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:Y27" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W1048576 R2:R1048576" xr:uid="{74DC31F0-79DE-49E2-BA25-E779066ECA88}">
       <formula1>$AD$2:$AD$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{40C1ADFB-F895-4F04-B756-D406F08C0346}">
+      <formula1>Running_Serial_No___651</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{728EA589-E304-4F64-A903-DE02F1AEDCEF}">
           <x14:formula1>
             <xm:f>Section!$A$3:$A$31</xm:f>
@@ -3378,12 +3267,6 @@
             <xm:f>Reasons!$A$3:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>S2:S1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40C1ADFB-F895-4F04-B756-D406F08C0346}">
-          <x14:formula1>
-            <xm:f>_xlfn.ANCHORARRAY('Challan Details'!$O$2)</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6008,112 +5891,112 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="90" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="90" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="91" t="s">
         <v>375</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="90" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="90" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="91" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="90" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="89" t="s">
         <v>363</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="90" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="90" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="89" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="90" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="90" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="90" t="s">
         <v>372</v>
       </c>
     </row>
